--- a/biology/Botanique/Salix_purpurea/Salix_purpurea.xlsx
+++ b/biology/Botanique/Salix_purpurea/Salix_purpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Osier pourpre, l’Osier rouge ou le Saule pourpre (Salix purpurea) est un petit saule d'une hauteur de 1 à 2 m pouvant exceptionnellement pousser jusqu'à 6 m. Il tire son nom de la couleur de ses fleurs, fréquemment pourpres, qui apparaissent au début du printemps.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractères biologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbrisseau de 1 à 6 m, caducifolié, est d'une longévité faible. C'est une espèce dioïque, avec une floraison de mars à avril, avant la feuillaison. Salix purpurea est pollinisé par les insectes, et ses graines sont dispersées par le vent. C'est une espèce pionnière.
 </t>
@@ -542,7 +556,9 @@
           <t>Identification rapide</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec un port touffu, souvent en boule, Salix purpurea est le seul représentant français du genre Salix dont les feuilles (et bourgeons) paraissent opposées ou subopposées. Le limbe de ses feuilles est finement denticulé, elliptique, à face inférieure glauque. Ses rameaux sont opposés et pourpre foncé. Ses fleurs mâles ont leurs anthères rouges.
 </t>
@@ -573,7 +589,9 @@
           <t>Identification poussée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rameaux grêles, souples, glabres, brillants, opposés et pourpre foncé.
 Bourgeons lisses et luisants.
